--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Heino_Heine/Hermann_Heino_Heine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Heino_Heine/Hermann_Heino_Heine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermann Heino Heine (1923[1]-1996) est un botaniste sud-africain et collecteur de plantes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermann Heino Heine (1923-1996) est un botaniste sud-africain et collecteur de plantes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1953 il soutient à Munich une thèse sous le titre Pflanzen der Sammlung J. und M. S. Clemens vom Mount Kinabalu in Britisch Nord-Borneo[2].
-Ses recherches ont porté principalement sur les Ptéridophytes et les Spermatophytes. Il a travaillé en Afrique tropicale (République centrafricaine), en Europe (France, Irlande, Royaume-Uni), en Nouvelle-Calédonie, collectant des plantes entre 1960 et 1986[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1953 il soutient à Munich une thèse sous le titre Pflanzen der Sammlung J. und M. S. Clemens vom Mount Kinabalu in Britisch Nord-Borneo.
+Ses recherches ont porté principalement sur les Ptéridophytes et les Spermatophytes. Il a travaillé en Afrique tropicale (République centrafricaine), en Europe (France, Irlande, Royaume-Uni), en Nouvelle-Calédonie, collectant des plantes entre 1960 et 1986.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« A forgotten Alsatian botanist : Marcus Mappus filius (1666-1736) », in Journal of the Society for the Bibliography of Natural History, 1963, volume 4, part 2, p. 147-150
 Acanthacées, 1966
